--- a/mySQL_Create/stats_array.xlsx
+++ b/mySQL_Create/stats_array.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -575,18 +575,18 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -638,14 +638,14 @@
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -655,14 +655,14 @@
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -672,14 +672,14 @@
       <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -689,24 +689,24 @@
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="15"/>
